--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qingy\Dropbox\Group-Project-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qingy\Dropbox\group-project-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDAF5EDA-F6A5-45BE-A49D-A570645FCA48}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3F34DF-7ADF-4EC8-93AB-A246DA0D9D0A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>Master Percentile Minus Phd Percentile</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Income - Std Break Even Years</t>
   </si>
   <si>
-    <t>Master Percentile Greater than 50?</t>
-  </si>
-  <si>
     <t>Phd Percentile Greater than 50?</t>
   </si>
   <si>
@@ -175,13 +172,16 @@
   </si>
   <si>
     <t>Percentile Needed to Earn the Same as Undergrad at 50 Percentile</t>
+  </si>
+  <si>
+    <t>Percentile Greater than 50 Compared to Undergrad at 50 Percentile?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +200,14 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -243,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -260,9 +268,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -270,6 +275,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -552,20 +563,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="7" width="15.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="2" max="4" width="15.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="15.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -573,374 +586,421 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2">
-        <v>3</v>
-      </c>
       <c r="C2" s="2">
-        <v>-15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2">
-        <v>27.5</v>
+        <v>6.7</v>
       </c>
       <c r="E2" s="2" t="b">
         <f>D2&gt;50</f>
         <v>0</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
-        <f>D2-D3</f>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="2" t="b">
+        <f>D2&gt;50</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="4">
-        <v>-24</v>
+        <v>15</v>
       </c>
       <c r="D3" s="4">
-        <v>22</v>
-      </c>
-      <c r="E3" s="4"/>
+        <v>9.1</v>
+      </c>
+      <c r="E3" s="4" t="b">
+        <f>D3&gt;50</f>
+        <v>0</v>
+      </c>
       <c r="F3" s="4" t="b">
         <f>D3&gt;50</f>
         <v>0</v>
       </c>
       <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B4" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="6">
-        <v>-35</v>
+        <v>25</v>
       </c>
       <c r="D4" s="6">
-        <v>20.399999999999999</v>
+        <v>10</v>
       </c>
       <c r="E4" s="6" t="b">
         <f>D4&gt;50</f>
         <v>0</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6">
-        <f>D4-D5</f>
-        <v>11.299999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="6" t="b">
+        <f>D4&gt;50</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B5" s="4">
         <v>3</v>
       </c>
       <c r="C5" s="4">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D5" s="4">
-        <v>9.1</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="b">
+        <v>11.9</v>
+      </c>
+      <c r="E5" s="4" t="b">
         <f>D5&gt;50</f>
         <v>0</v>
       </c>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4">
+        <f>$D$24-$D$25</f>
+        <v>-0.89999999999999858</v>
+      </c>
+      <c r="H5" s="4">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="6">
-        <v>-14</v>
+        <v>31</v>
       </c>
       <c r="D6" s="6">
-        <v>28.1</v>
+        <v>12.1</v>
       </c>
       <c r="E6" s="6" t="b">
         <f>D6&gt;50</f>
         <v>0</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6">
-        <f>D6-D7</f>
-        <v>6.3000000000000007</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="6" t="b">
+        <f>D6&gt;50</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="B7" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="4">
-        <v>-35</v>
+        <v>65</v>
       </c>
       <c r="D7" s="4">
-        <v>21.8</v>
-      </c>
-      <c r="E7" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="E7" s="4" t="b">
+        <f>D7&gt;50</f>
+        <v>0</v>
+      </c>
       <c r="F7" s="4" t="b">
         <f>D7&gt;50</f>
         <v>0</v>
       </c>
       <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B8" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" s="6">
-        <v>-14</v>
+        <v>53</v>
       </c>
       <c r="D8" s="6">
-        <v>27.3</v>
+        <v>13.3</v>
       </c>
       <c r="E8" s="6" t="b">
         <f>D8&gt;50</f>
         <v>0</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6">
-        <f>D8-D9</f>
-        <v>15.200000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="6" t="b">
+        <f>D8&gt;50</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B9" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" s="4">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="D9" s="4">
-        <v>12.1</v>
-      </c>
-      <c r="E9" s="4"/>
+        <v>14.4</v>
+      </c>
+      <c r="E9" s="4" t="b">
+        <f>D9&gt;50</f>
+        <v>0</v>
+      </c>
       <c r="F9" s="4" t="b">
         <f>D9&gt;50</f>
         <v>0</v>
       </c>
       <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B10" s="6">
         <v>4</v>
       </c>
       <c r="C10" s="6">
-        <v>-15</v>
+        <v>124</v>
       </c>
       <c r="D10" s="6">
-        <v>29.4</v>
+        <v>14.9</v>
       </c>
       <c r="E10" s="6" t="b">
         <f>D10&gt;50</f>
         <v>0</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6">
-        <f>D10-D11</f>
-        <v>5.2999999999999972</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="6" t="b">
+        <f>D10&gt;50</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B11" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C11" s="4">
-        <v>-27</v>
+        <v>185</v>
       </c>
       <c r="D11" s="4">
-        <v>24.1</v>
-      </c>
-      <c r="E11" s="4"/>
+        <v>15.1</v>
+      </c>
+      <c r="E11" s="4" t="b">
+        <f>D11&gt;50</f>
+        <v>0</v>
+      </c>
       <c r="F11" s="4" t="b">
         <f>D11&gt;50</f>
         <v>0</v>
       </c>
       <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B12" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" s="6">
-        <v>-18</v>
+        <v>258</v>
       </c>
       <c r="D12" s="6">
-        <v>27.2</v>
+        <v>15.3</v>
       </c>
       <c r="E12" s="6" t="b">
         <f>D12&gt;50</f>
         <v>0</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6">
-        <f>D12-D13</f>
-        <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="6" t="b">
+        <f>D12&gt;50</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B13" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C13" s="4">
-        <v>-73</v>
+        <v>-254</v>
       </c>
       <c r="D13" s="4">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4" t="b">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="E13" s="4" t="b">
         <f>D13&gt;50</f>
         <v>0</v>
       </c>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="4"/>
+      <c r="G13" s="4">
+        <f>$D$34-$D$35</f>
+        <v>-0.19999999999999929</v>
+      </c>
+      <c r="H13" s="4">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B14" s="6">
         <v>5</v>
       </c>
       <c r="C14" s="6">
-        <v>-10</v>
+        <v>-170</v>
       </c>
       <c r="D14" s="6">
-        <v>36.700000000000003</v>
+        <v>16.8</v>
       </c>
       <c r="E14" s="6" t="b">
         <f>D14&gt;50</f>
         <v>0</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="8">
-        <f>D14-D15</f>
-        <v>-25.099999999999994</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="6" t="b">
+        <f>D14&gt;50</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" s="4">
+        <v>4</v>
+      </c>
+      <c r="C15" s="4">
+        <v>-141</v>
+      </c>
+      <c r="D15" s="4">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="E15" s="4" t="b">
+        <f>D15&gt;50</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="4" t="b">
+        <f>D15&gt;50</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="4">
-        <v>-5</v>
-      </c>
-      <c r="D15" s="4">
-        <v>61.8</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="9" t="b">
-        <f>D15&gt;50</f>
-        <v>1</v>
-      </c>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="B16" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C16" s="6">
-        <v>-11</v>
+        <v>-73</v>
       </c>
       <c r="D16" s="6">
-        <v>26.7</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="E16" s="6" t="b">
         <f>D16&gt;50</f>
         <v>0</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6">
-        <f>D16-D17</f>
-        <v>9.8000000000000007</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F16" s="6" t="b">
+        <f>D16&gt;50</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B17" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C17" s="4">
-        <v>-141</v>
+        <v>-66</v>
       </c>
       <c r="D17" s="4">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="E17" s="4"/>
+        <v>19.5</v>
+      </c>
+      <c r="E17" s="4" t="b">
+        <f>D17&gt;50</f>
+        <v>0</v>
+      </c>
       <c r="F17" s="4" t="b">
         <f>D17&gt;50</f>
         <v>0</v>
       </c>
       <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B18" s="6">
         <v>3</v>
       </c>
       <c r="C18" s="6">
-        <v>-34</v>
+        <v>-35</v>
       </c>
       <c r="D18" s="6">
-        <v>21.1</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="E18" s="6" t="b">
         <f>D18&gt;50</f>
@@ -948,128 +1008,149 @@
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6">
-        <f>D18-D19</f>
-        <v>11.100000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <f>$D$4-$D$5</f>
+        <v>-1.9000000000000004</v>
+      </c>
+      <c r="H18" s="6">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B19" s="4">
+        <v>3</v>
+      </c>
+      <c r="C19" s="4">
+        <v>-34</v>
+      </c>
+      <c r="D19" s="4">
+        <v>21.1</v>
+      </c>
+      <c r="E19" s="4" t="b">
+        <f>D19&gt;50</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4">
+        <f>$D$18-$D$19</f>
+        <v>-0.70000000000000284</v>
+      </c>
+      <c r="H19" s="4">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="6">
         <v>4</v>
       </c>
-      <c r="C19" s="4">
-        <v>25</v>
-      </c>
-      <c r="D19" s="4">
-        <v>10</v>
-      </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4" t="b">
-        <f>D19&gt;50</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="6">
-        <v>3</v>
-      </c>
       <c r="C20" s="6">
-        <v>-15</v>
+        <v>-38</v>
       </c>
       <c r="D20" s="6">
-        <v>25.3</v>
+        <v>21.7</v>
       </c>
       <c r="E20" s="6" t="b">
         <f>D20&gt;50</f>
         <v>0</v>
       </c>
       <c r="F20" s="6"/>
-      <c r="G20" s="8">
-        <f>D20-D21</f>
-        <v>-1.0999999999999979</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G20" s="6">
+        <f>$D$22-$D$23</f>
+        <v>-0.89999999999999858</v>
+      </c>
+      <c r="H20" s="6">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B21" s="4">
         <v>6</v>
       </c>
       <c r="C21" s="4">
-        <v>-16</v>
+        <v>-35</v>
       </c>
       <c r="D21" s="4">
-        <v>26.4</v>
-      </c>
-      <c r="E21" s="4"/>
+        <v>21.8</v>
+      </c>
+      <c r="E21" s="4" t="b">
+        <f>D21&gt;50</f>
+        <v>0</v>
+      </c>
       <c r="F21" s="4" t="b">
         <f>D21&gt;50</f>
         <v>0</v>
       </c>
       <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B22" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C22" s="6">
-        <v>-38</v>
+        <v>-24</v>
       </c>
       <c r="D22" s="6">
-        <v>21.7</v>
+        <v>22</v>
       </c>
       <c r="E22" s="6" t="b">
         <f>D22&gt;50</f>
         <v>0</v>
       </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6">
-        <f>D22-D23</f>
-        <v>6.6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>26</v>
+      <c r="F22" s="6" t="b">
+        <f>D22&gt;50</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="B23" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C23" s="4">
-        <v>185</v>
+        <v>-45</v>
       </c>
       <c r="D23" s="4">
-        <v>15.1</v>
-      </c>
-      <c r="E23" s="4"/>
+        <v>22.9</v>
+      </c>
+      <c r="E23" s="10" t="b">
+        <f>D23&gt;50</f>
+        <v>0</v>
+      </c>
       <c r="F23" s="4" t="b">
         <f>D23&gt;50</f>
         <v>0</v>
       </c>
       <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B24" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C24" s="6">
-        <v>37</v>
+        <v>-28</v>
       </c>
       <c r="D24" s="6">
-        <v>11.9</v>
+        <v>23</v>
       </c>
       <c r="E24" s="6" t="b">
         <f>D24&gt;50</f>
@@ -1077,128 +1158,149 @@
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6">
-        <f>D24-D25</f>
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <f>$D$32-$D$33</f>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H24" s="6">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C25" s="4">
-        <v>16</v>
+        <v>-22</v>
       </c>
       <c r="D25" s="4">
-        <v>6.7</v>
-      </c>
-      <c r="E25" s="4"/>
+        <v>23.9</v>
+      </c>
+      <c r="E25" s="4" t="b">
+        <f>D25&gt;50</f>
+        <v>0</v>
+      </c>
       <c r="F25" s="4" t="b">
         <f>D25&gt;50</f>
         <v>0</v>
       </c>
       <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B26" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C26" s="6">
-        <v>-18</v>
+        <v>-27</v>
       </c>
       <c r="D26" s="6">
-        <v>27.4</v>
+        <v>24.1</v>
       </c>
       <c r="E26" s="6" t="b">
         <f>D26&gt;50</f>
         <v>0</v>
       </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6">
-        <f>D26-D27</f>
-        <v>12.499999999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F26" s="6" t="b">
+        <f>D26&gt;50</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B27" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27" s="4">
-        <v>124</v>
+        <v>-15</v>
       </c>
       <c r="D27" s="4">
-        <v>14.9</v>
-      </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4" t="b">
+        <v>25.3</v>
+      </c>
+      <c r="E27" s="4" t="b">
         <f>D27&gt;50</f>
         <v>0</v>
       </c>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="1:7" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F27" s="4"/>
+      <c r="G27" s="8">
+        <f>$D$20-$D$21</f>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H27" s="8">
+        <v>-1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B28" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C28" s="6">
-        <v>-12</v>
+        <v>-16</v>
       </c>
       <c r="D28" s="6">
-        <v>29.7</v>
+        <v>26.4</v>
       </c>
       <c r="E28" s="6" t="b">
         <f>D28&gt;50</f>
         <v>0</v>
       </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6">
-        <f>D28-D29</f>
-        <v>5.8000000000000007</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F28" s="6" t="b">
+        <f>D28&gt;50</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B29" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C29" s="4">
-        <v>-22</v>
+        <v>-11</v>
       </c>
       <c r="D29" s="4">
-        <v>23.9</v>
-      </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4" t="b">
+        <v>26.7</v>
+      </c>
+      <c r="E29" s="4" t="b">
         <f>D29&gt;50</f>
         <v>0</v>
       </c>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="1:7" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F29" s="4"/>
+      <c r="G29" s="4">
+        <f>$D$16-$D$17</f>
+        <v>-1.1000000000000014</v>
+      </c>
+      <c r="H29" s="4">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B30" s="6">
         <v>4</v>
       </c>
       <c r="C30" s="6">
-        <v>-10</v>
+        <v>-18</v>
       </c>
       <c r="D30" s="6">
-        <v>32.799999999999997</v>
+        <v>27.2</v>
       </c>
       <c r="E30" s="6" t="b">
         <f>D30&gt;50</f>
@@ -1206,42 +1308,51 @@
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6">
-        <f>D30-D31</f>
-        <v>17.499999999999996</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <f>$D$12-$D$13</f>
+        <v>-1.3000000000000007</v>
+      </c>
+      <c r="H30" s="6">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B31" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C31" s="4">
-        <v>258</v>
+        <v>-14</v>
       </c>
       <c r="D31" s="4">
-        <v>15.3</v>
-      </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4" t="b">
+        <v>27.3</v>
+      </c>
+      <c r="E31" s="4" t="b">
         <f>D31&gt;50</f>
         <v>0</v>
       </c>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="1:7" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F31" s="4"/>
+      <c r="G31" s="4">
+        <f>$D$8-$D$9</f>
+        <v>-1.0999999999999996</v>
+      </c>
+      <c r="H31" s="4">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B32" s="6">
         <v>4</v>
       </c>
       <c r="C32" s="6">
-        <v>-28</v>
+        <v>-18</v>
       </c>
       <c r="D32" s="6">
-        <v>23</v>
+        <v>27.4</v>
       </c>
       <c r="E32" s="6" t="b">
         <f>D32&gt;50</f>
@@ -1249,42 +1360,51 @@
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6">
-        <f>D32-D33</f>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <f>$D$26-$D$27</f>
+        <v>-1.1999999999999993</v>
+      </c>
+      <c r="H32" s="6">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="B33" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C33" s="4">
-        <v>-66</v>
+        <v>-15</v>
       </c>
       <c r="D33" s="4">
-        <v>19.5</v>
-      </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4" t="b">
+        <v>27.5</v>
+      </c>
+      <c r="E33" s="4" t="b">
         <f>D33&gt;50</f>
         <v>0</v>
       </c>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="1:7" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F33" s="4"/>
+      <c r="G33" s="4">
+        <f>$D$2-$D$3</f>
+        <v>-2.3999999999999995</v>
+      </c>
+      <c r="H33" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B34" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C34" s="6">
-        <v>-254</v>
+        <v>-14</v>
       </c>
       <c r="D34" s="6">
-        <v>16.600000000000001</v>
+        <v>28.1</v>
       </c>
       <c r="E34" s="6" t="b">
         <f>D34&gt;50</f>
@@ -1292,85 +1412,103 @@
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6">
-        <f>D34-D35</f>
-        <v>3.6000000000000014</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <f>$D$6-$D$7</f>
+        <v>-0.90000000000000036</v>
+      </c>
+      <c r="H34" s="6">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C35" s="4">
-        <v>65</v>
+        <v>-13</v>
       </c>
       <c r="D35" s="4">
-        <v>13</v>
-      </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4" t="b">
+        <v>28.3</v>
+      </c>
+      <c r="E35" s="4" t="b">
         <f>D35&gt;50</f>
         <v>0</v>
       </c>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="1:7" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
-        <v>39</v>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4">
+        <f>$D$38-$D$39</f>
+        <v>-1.9000000000000021</v>
+      </c>
+      <c r="H35" s="4">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="B36" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C36" s="6">
-        <v>-6</v>
+        <v>-15</v>
       </c>
       <c r="D36" s="6">
-        <v>53.6</v>
-      </c>
-      <c r="E36" s="8" t="b">
+        <v>29.4</v>
+      </c>
+      <c r="E36" s="6" t="b">
         <f>D36&gt;50</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6">
-        <f>D36-D37</f>
-        <v>30.700000000000003</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
-        <v>40</v>
+        <f>$D$10-$D$11</f>
+        <v>-0.19999999999999929</v>
+      </c>
+      <c r="H36" s="6">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="B37" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C37" s="4">
-        <v>-45</v>
+        <v>-15</v>
       </c>
       <c r="D37" s="4">
-        <v>22.9</v>
-      </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4" t="b">
+        <v>29.7</v>
+      </c>
+      <c r="E37" s="4" t="b">
         <f>D37&gt;50</f>
         <v>0</v>
       </c>
-      <c r="G37" s="4"/>
-    </row>
-    <row r="38" spans="1:7" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F37" s="4"/>
+      <c r="G37" s="4">
+        <f>$D$40-$D$41</f>
+        <v>-3.9000000000000057</v>
+      </c>
+      <c r="H37" s="4">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B38" s="6">
         <v>3</v>
       </c>
       <c r="C38" s="6">
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="D38" s="6">
-        <v>28.3</v>
+        <v>29.7</v>
       </c>
       <c r="E38" s="6" t="b">
         <f>D38&gt;50</f>
@@ -1378,42 +1516,51 @@
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6">
-        <f>D38-D39</f>
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <f>$D$28-$D$29</f>
+        <v>-0.30000000000000071</v>
+      </c>
+      <c r="H38" s="6">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C39" s="4">
-        <v>-170</v>
+        <v>-11</v>
       </c>
       <c r="D39" s="4">
-        <v>16.8</v>
-      </c>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4" t="b">
+        <v>31.6</v>
+      </c>
+      <c r="E39" s="4" t="b">
         <f>D39&gt;50</f>
         <v>0</v>
       </c>
-      <c r="G39" s="4"/>
-    </row>
-    <row r="40" spans="1:7" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F39" s="4"/>
+      <c r="G39" s="4">
+        <f>$D$42-$D$43</f>
+        <v>-8.1999999999999957</v>
+      </c>
+      <c r="H39" s="4">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B40" s="6">
         <v>4</v>
       </c>
       <c r="C40" s="6">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="D40" s="6">
-        <v>29.7</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="E40" s="6" t="b">
         <f>D40&gt;50</f>
@@ -1421,74 +1568,93 @@
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6">
-        <f>D40-D41</f>
-        <v>16.399999999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <f>$D$30-$D$31</f>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="H40" s="6">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="B41" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C41" s="4">
-        <v>53</v>
+        <v>-10</v>
       </c>
       <c r="D41" s="4">
-        <v>13.3</v>
-      </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4" t="b">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="E41" s="4" t="b">
         <f>D41&gt;50</f>
         <v>0</v>
       </c>
-      <c r="G41" s="4"/>
-    </row>
-    <row r="42" spans="1:7" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
-        <v>45</v>
+      <c r="F41" s="4"/>
+      <c r="G41" s="8">
+        <f>$D$14-$D$15</f>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="H41" s="8">
+        <v>-25.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="B42" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C42" s="6">
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="D42" s="6">
-        <v>31.6</v>
-      </c>
-      <c r="E42" s="6" t="b">
+        <v>53.6</v>
+      </c>
+      <c r="E42" s="11" t="b">
         <f>D42&gt;50</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="6">
-        <f>D42-D43</f>
-        <v>17.200000000000003</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <f>$D$36-$D$37</f>
+        <v>-0.30000000000000071</v>
+      </c>
+      <c r="H42" s="6">
+        <v>30.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="B43" s="4">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C43" s="4">
-        <v>101</v>
+        <v>-5</v>
       </c>
       <c r="D43" s="4">
-        <v>14.4</v>
-      </c>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4" t="b">
+        <v>61.8</v>
+      </c>
+      <c r="E43" s="12" t="b">
         <f>D43&gt;50</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F43" s="8" t="b">
+        <f>D43&gt;50</f>
+        <v>1</v>
       </c>
       <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H43">
+    <sortCondition ref="D1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
